--- a/Cirrhosis/rulex_results/Scoring_Rules_Cirrhosis.xlsx
+++ b/Cirrhosis/rulex_results/Scoring_Rules_Cirrhosis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CNF-Research And Development\TU Dublin\output\cirrhosis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudublin-my.sharepoint.com/personal/lucas_rizzo_tudublin_ie/Documents/rulex/Multiclass/Cirrhosis/rulex_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70ACDA6-48E3-456F-A523-EFFE6BCA6682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{D70ACDA6-48E3-456F-A523-EFFE6BCA6682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A761A7F-C5ED-4B80-89A9-975CF8737040}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Error Max 0.050 Fold 1" sheetId="1" r:id="rId1"/>
@@ -1127,16 +1127,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C7" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -1177,7 +1182,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1212,7 +1217,7 @@
         <v>0.33350800000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1253,7 +1258,7 @@
         <v>0.33167099999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1294,7 +1299,7 @@
         <v>0.23690800000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1329,7 +1334,7 @@
         <v>9.7913E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1370,7 +1375,7 @@
         <v>0.22289400000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1411,7 +1416,7 @@
         <v>0.18723100000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1452,7 +1457,7 @@
         <v>0.15156800000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1493,7 +1498,7 @@
         <v>0.106989</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1531,7 +1536,7 @@
         <v>8.9157E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1566,7 +1571,7 @@
         <v>8.0510999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1604,7 +1609,7 @@
         <v>8.0510999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1639,7 +1644,7 @@
         <v>5.4392000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1680,7 +1685,7 @@
         <v>2.6747E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1721,7 +1726,7 @@
         <v>0.14715700000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1762,7 +1767,7 @@
         <v>0.12762299999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1803,7 +1808,7 @@
         <v>0.12762299999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1844,7 +1849,7 @@
         <v>0.113443</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1879,7 +1884,7 @@
         <v>9.5748E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1914,7 +1919,7 @@
         <v>7.5629000000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1952,7 +1957,7 @@
         <v>7.5629000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1990,7 +1995,7 @@
         <v>6.6174999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2028,7 +2033,7 @@
         <v>6.1448000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2069,7 +2074,7 @@
         <v>6.1448000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2104,7 +2109,7 @@
         <v>4.8076000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2145,7 +2150,7 @@
         <v>0.30470000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2186,7 +2191,7 @@
         <v>0.17640500000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2227,7 +2232,7 @@
         <v>0.16036900000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2265,7 +2270,7 @@
         <v>0.112258</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2303,7 +2308,7 @@
         <v>9.0875999999999998E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2341,7 +2346,7 @@
         <v>9.0875999999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2382,7 +2387,7 @@
         <v>3.7571E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2429,16 +2434,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -2479,7 +2489,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2517,7 +2527,7 @@
         <v>0.45153500000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2552,7 +2562,7 @@
         <v>0.30187599999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2593,7 +2603,7 @@
         <v>0.246589</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2634,7 +2644,7 @@
         <v>0.34586600000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2675,7 +2685,7 @@
         <v>0.23260900000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2716,7 +2726,7 @@
         <v>0.16212499999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2757,7 +2767,7 @@
         <v>0.12970000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2798,7 +2808,7 @@
         <v>0.12970000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2833,7 +2843,7 @@
         <v>0.174099</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2874,7 +2884,7 @@
         <v>0.173318</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2915,7 +2925,7 @@
         <v>0.14916199999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2950,7 +2960,7 @@
         <v>0.142732</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2988,7 +2998,7 @@
         <v>0.143375</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3023,7 +3033,7 @@
         <v>0.112652</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3064,7 +3074,7 @@
         <v>9.9035999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3096,7 +3106,7 @@
         <v>5.6259999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3131,7 +3141,7 @@
         <v>0.29814099999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3169,7 +3179,7 @@
         <v>0.28627799999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3207,7 +3217,7 @@
         <v>0.196968</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3242,7 +3252,7 @@
         <v>0.111648</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3283,7 +3293,7 @@
         <v>6.6538E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3333,16 +3343,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -3383,7 +3397,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3424,7 +3438,7 @@
         <v>0.69159199999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3459,7 +3473,7 @@
         <v>0.20660700000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3491,7 +3505,7 @@
         <v>0.101802</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3526,7 +3540,7 @@
         <v>0.29133599999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3564,7 +3578,7 @@
         <v>0.20479600000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3599,7 +3613,7 @@
         <v>0.193991</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3637,7 +3651,7 @@
         <v>0.162076</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3678,7 +3692,7 @@
         <v>0.14780199999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3719,7 +3733,7 @@
         <v>0.27635199999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3757,7 +3771,7 @@
         <v>0.18751300000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3795,7 +3809,7 @@
         <v>0.14497099999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3833,7 +3847,7 @@
         <v>0.13720499999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3868,7 +3882,7 @@
         <v>0.12872700000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3906,7 +3920,7 @@
         <v>0.12523200000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3941,7 +3955,7 @@
         <v>0.41006999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3982,7 +3996,7 @@
         <v>0.37164999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4020,7 +4034,7 @@
         <v>0.131442</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4077,12 +4091,16 @@
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -4123,7 +4141,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4161,7 +4179,7 @@
         <v>0.68564400000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4196,7 +4214,7 @@
         <v>0.210591</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4228,7 +4246,7 @@
         <v>0.103765</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4269,7 +4287,7 @@
         <v>0.39474700000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4301,7 +4319,7 @@
         <v>0.29513099999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4336,7 +4354,7 @@
         <v>0.13705899999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4371,7 +4389,7 @@
         <v>0.123206</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4406,7 +4424,7 @@
         <v>4.9858E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4444,7 +4462,7 @@
         <v>0.26988499999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4485,7 +4503,7 @@
         <v>0.229604</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4526,7 +4544,7 @@
         <v>0.20647799999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4561,7 +4579,7 @@
         <v>0.115078</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4596,7 +4614,7 @@
         <v>0.106326</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4628,7 +4646,7 @@
         <v>7.2628999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4663,7 +4681,7 @@
         <v>0.37053199999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4698,7 +4716,7 @@
         <v>0.33544000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4739,7 +4757,7 @@
         <v>0.21948599999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4786,6 +4804,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="35e04e53-8035-4693-a7c1-f4caf4429e95" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="94dc1244-2250-4226-8a6d-024056f3e2cb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100AF64E39BDF063145A3CCF26D1014A5F5" ma:contentTypeVersion="17" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="80a98ef0f9b4d9116a370af2033599bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="94dc1244-2250-4226-8a6d-024056f3e2cb" xmlns:ns3="35e04e53-8035-4693-a7c1-f4caf4429e95" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8da2e27824f9ad78ea0797750853939" ns2:_="" ns3:_="">
     <xsd:import namespace="94dc1244-2250-4226-8a6d-024056f3e2cb"/>
@@ -5034,34 +5072,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="35e04e53-8035-4693-a7c1-f4caf4429e95" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="94dc1244-2250-4226-8a6d-024056f3e2cb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83B85677-893A-48CC-AA40-F9CFD3BBBE44}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ECEC0C1-E39A-49E4-ABD6-5294FE3B3C5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="35e04e53-8035-4693-a7c1-f4caf4429e95"/>
+    <ds:schemaRef ds:uri="94dc1244-2250-4226-8a6d-024056f3e2cb"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75A62FD-6BFF-4527-BEB6-20B457518496}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75A62FD-6BFF-4527-BEB6-20B457518496}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ECEC0C1-E39A-49E4-ABD6-5294FE3B3C5B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83B85677-893A-48CC-AA40-F9CFD3BBBE44}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="94dc1244-2250-4226-8a6d-024056f3e2cb"/>
+    <ds:schemaRef ds:uri="35e04e53-8035-4693-a7c1-f4caf4429e95"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>